--- a/half_hour_finally.xlsx
+++ b/half_hour_finally.xlsx
@@ -506,7 +506,7 @@
         <v>10.77409978544033</v>
       </c>
       <c r="I2" t="n">
-        <v>18375</v>
+        <v>14188</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>10.7547906046332</v>
       </c>
       <c r="I3" t="n">
-        <v>18216</v>
+        <v>14157</v>
       </c>
     </row>
     <row r="4">
@@ -564,7 +564,7 @@
         <v>10.7568518419714</v>
       </c>
       <c r="I4" t="n">
-        <v>18147</v>
+        <v>14158</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +593,7 @@
         <v>10.71140953326589</v>
       </c>
       <c r="I5" t="n">
-        <v>17946</v>
+        <v>14091</v>
       </c>
     </row>
     <row r="6">
@@ -622,7 +622,7 @@
         <v>10.7096632901025</v>
       </c>
       <c r="I6" t="n">
-        <v>17883</v>
+        <v>14087</v>
       </c>
     </row>
     <row r="7">
@@ -651,7 +651,7 @@
         <v>10.6751636648726</v>
       </c>
       <c r="I7" t="n">
-        <v>17774</v>
+        <v>14038</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
         <v>10.69878707509548</v>
       </c>
       <c r="I8" t="n">
-        <v>17750</v>
+        <v>14070</v>
       </c>
     </row>
     <row r="9">
@@ -709,7 +709,7 @@
         <v>10.72606186782635</v>
       </c>
       <c r="I9" t="n">
-        <v>17691</v>
+        <v>14104</v>
       </c>
     </row>
     <row r="10">
@@ -738,7 +738,7 @@
         <v>10.72881280512101</v>
       </c>
       <c r="I10" t="n">
-        <v>17619</v>
+        <v>14104</v>
       </c>
     </row>
     <row r="11">
@@ -767,7 +767,7 @@
         <v>10.70664819477294</v>
       </c>
       <c r="I11" t="n">
-        <v>17508</v>
+        <v>14069</v>
       </c>
     </row>
     <row r="12">
@@ -796,7 +796,7 @@
         <v>10.71663363595093</v>
       </c>
       <c r="I12" t="n">
-        <v>17442</v>
+        <v>14077</v>
       </c>
     </row>
     <row r="13">
@@ -825,7 +825,7 @@
         <v>10.73224213079013</v>
       </c>
       <c r="I13" t="n">
-        <v>17440</v>
+        <v>14096</v>
       </c>
     </row>
     <row r="14">
@@ -854,7 +854,7 @@
         <v>10.69229745048556</v>
       </c>
       <c r="I14" t="n">
-        <v>17432</v>
+        <v>14040</v>
       </c>
     </row>
     <row r="15">
@@ -883,7 +883,7 @@
         <v>10.67469085268452</v>
       </c>
       <c r="I15" t="n">
-        <v>17464</v>
+        <v>14016</v>
       </c>
     </row>
     <row r="16">
@@ -912,7 +912,7 @@
         <v>10.67280407200607</v>
       </c>
       <c r="I16" t="n">
-        <v>17527</v>
+        <v>14014</v>
       </c>
     </row>
     <row r="17">
@@ -941,7 +941,7 @@
         <v>10.6416738323372</v>
       </c>
       <c r="I17" t="n">
-        <v>17620</v>
+        <v>13975</v>
       </c>
     </row>
     <row r="18">
@@ -970,7 +970,7 @@
         <v>10.6399206984236</v>
       </c>
       <c r="I18" t="n">
-        <v>17831</v>
+        <v>13979</v>
       </c>
     </row>
     <row r="19">
@@ -999,7 +999,7 @@
         <v>10.60027912628505</v>
       </c>
       <c r="I19" t="n">
-        <v>17992</v>
+        <v>13932</v>
       </c>
     </row>
     <row r="20">
@@ -1028,7 +1028,7 @@
         <v>10.60980502104707</v>
       </c>
       <c r="I20" t="n">
-        <v>18299</v>
+        <v>13957</v>
       </c>
     </row>
     <row r="21">
@@ -1057,7 +1057,7 @@
         <v>10.63783760905281</v>
       </c>
       <c r="I21" t="n">
-        <v>18678</v>
+        <v>14010</v>
       </c>
     </row>
     <row r="22">
@@ -1086,7 +1086,7 @@
         <v>10.6356884266361</v>
       </c>
       <c r="I22" t="n">
-        <v>18992</v>
+        <v>14021</v>
       </c>
     </row>
     <row r="23">
@@ -1115,7 +1115,7 @@
         <v>10.64241918983692</v>
       </c>
       <c r="I23" t="n">
-        <v>19402</v>
+        <v>14049</v>
       </c>
     </row>
     <row r="24">
@@ -1144,7 +1144,7 @@
         <v>10.61851753402136</v>
       </c>
       <c r="I24" t="n">
-        <v>19746</v>
+        <v>14034</v>
       </c>
     </row>
     <row r="25">
@@ -1173,7 +1173,7 @@
         <v>10.556564032702</v>
       </c>
       <c r="I25" t="n">
-        <v>20006</v>
+        <v>13965</v>
       </c>
     </row>
     <row r="26">
@@ -1202,7 +1202,7 @@
         <v>10.55892364092043</v>
       </c>
       <c r="I26" t="n">
-        <v>20306</v>
+        <v>13985</v>
       </c>
     </row>
     <row r="27">
@@ -1231,7 +1231,7 @@
         <v>10.53724036887603</v>
       </c>
       <c r="I27" t="n">
-        <v>20531</v>
+        <v>13968</v>
       </c>
     </row>
     <row r="28">
@@ -1260,7 +1260,7 @@
         <v>10.52522738396517</v>
       </c>
       <c r="I28" t="n">
-        <v>20783</v>
+        <v>13965</v>
       </c>
     </row>
     <row r="29">
@@ -1289,7 +1289,7 @@
         <v>10.54292654175059</v>
       </c>
       <c r="I29" t="n">
-        <v>21039</v>
+        <v>14002</v>
       </c>
     </row>
     <row r="30">
@@ -1318,7 +1318,7 @@
         <v>10.57187781182721</v>
       </c>
       <c r="I30" t="n">
-        <v>21246</v>
+        <v>14050</v>
       </c>
     </row>
     <row r="31">
@@ -1347,7 +1347,7 @@
         <v>10.61799902128408</v>
       </c>
       <c r="I31" t="n">
-        <v>21462</v>
+        <v>14121</v>
       </c>
     </row>
     <row r="32">
@@ -1376,7 +1376,7 @@
         <v>10.577816602916</v>
       </c>
       <c r="I32" t="n">
-        <v>21501</v>
+        <v>14070</v>
       </c>
     </row>
     <row r="33">
@@ -1405,7 +1405,7 @@
         <v>10.61422259643793</v>
       </c>
       <c r="I33" t="n">
-        <v>21620</v>
+        <v>14124</v>
       </c>
     </row>
     <row r="34">
@@ -1434,7 +1434,7 @@
         <v>10.62359541559197</v>
       </c>
       <c r="I34" t="n">
-        <v>21547</v>
+        <v>14133</v>
       </c>
     </row>
     <row r="35">
@@ -1463,7 +1463,7 @@
         <v>10.65936589887359</v>
       </c>
       <c r="I35" t="n">
-        <v>21457</v>
+        <v>14177</v>
       </c>
     </row>
     <row r="36">
@@ -1492,7 +1492,7 @@
         <v>10.69810459637764</v>
       </c>
       <c r="I36" t="n">
-        <v>21289</v>
+        <v>14221</v>
       </c>
     </row>
     <row r="37">
@@ -1521,7 +1521,7 @@
         <v>10.75715969057534</v>
       </c>
       <c r="I37" t="n">
-        <v>21078</v>
+        <v>14290</v>
       </c>
     </row>
     <row r="38">
@@ -1550,7 +1550,7 @@
         <v>10.79440974515979</v>
       </c>
       <c r="I38" t="n">
-        <v>20886</v>
+        <v>14330</v>
       </c>
     </row>
     <row r="39">
@@ -1579,7 +1579,7 @@
         <v>10.82471624784313</v>
       </c>
       <c r="I39" t="n">
-        <v>20584</v>
+        <v>14356</v>
       </c>
     </row>
     <row r="40">
@@ -1608,7 +1608,7 @@
         <v>10.84202645118851</v>
       </c>
       <c r="I40" t="n">
-        <v>20308</v>
+        <v>14365</v>
       </c>
     </row>
     <row r="41">
@@ -1637,7 +1637,7 @@
         <v>10.85232662310116</v>
       </c>
       <c r="I41" t="n">
-        <v>20056</v>
+        <v>14366</v>
       </c>
     </row>
     <row r="42">
@@ -1666,7 +1666,7 @@
         <v>10.85262253868042</v>
       </c>
       <c r="I42" t="n">
-        <v>19797</v>
+        <v>14353</v>
       </c>
     </row>
     <row r="43">
@@ -1695,7 +1695,7 @@
         <v>10.85232955854791</v>
       </c>
       <c r="I43" t="n">
-        <v>19552</v>
+        <v>14340</v>
       </c>
     </row>
     <row r="44">
@@ -1724,7 +1724,7 @@
         <v>10.88415975619855</v>
       </c>
       <c r="I44" t="n">
-        <v>19394</v>
+        <v>14375</v>
       </c>
     </row>
     <row r="45">
@@ -1753,7 +1753,7 @@
         <v>10.8557998822442</v>
       </c>
       <c r="I45" t="n">
-        <v>19146</v>
+        <v>14326</v>
       </c>
     </row>
     <row r="46">
@@ -1782,7 +1782,7 @@
         <v>10.84019862711291</v>
       </c>
       <c r="I46" t="n">
-        <v>18950</v>
+        <v>14296</v>
       </c>
     </row>
     <row r="47">
@@ -1811,7 +1811,7 @@
         <v>10.85348487656971</v>
       </c>
       <c r="I47" t="n">
-        <v>18808</v>
+        <v>14309</v>
       </c>
     </row>
     <row r="48">
@@ -1840,7 +1840,7 @@
         <v>10.84690848031709</v>
       </c>
       <c r="I48" t="n">
-        <v>18666</v>
+        <v>14295</v>
       </c>
     </row>
     <row r="49">
@@ -1869,7 +1869,7 @@
         <v>10.78057218862448</v>
       </c>
       <c r="I49" t="n">
-        <v>18445</v>
+        <v>14198</v>
       </c>
     </row>
   </sheetData>
